--- a/R.xlsx
+++ b/R.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deyha\OneDrive\Bureau\fact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{060F87F6-94A8-4E80-8DD7-E1A4EFEAE466}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{6232820B-1982-43B5-A9AF-C3E7E52165A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806493FA-8110-453E-9F1D-EBBE5E8C5C5E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,6 @@
     <t>CACHET</t>
   </si>
   <si>
-    <t>HAKIM OULD KHESSAL</t>
-  </si>
-  <si>
-    <t>HAMIDANI MUSTAPHA</t>
-  </si>
-  <si>
     <t>ABDERRAHMAN SAADOUN</t>
   </si>
   <si>
@@ -59,6 +53,12 @@
   </si>
   <si>
     <t>FIN DE PREPARATION:</t>
+  </si>
+  <si>
+    <t>DEBAGH OUSSAMA</t>
+  </si>
+  <si>
+    <t>SBAIHI SID ALI</t>
   </si>
 </sst>
 </file>
@@ -354,65 +354,65 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,7 +735,7 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -749,103 +749,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2"/>
       <c r="D10" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="68" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E6"/>
     <mergeCell ref="A1:B1"/>
@@ -854,10 +858,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
